--- a/Team-Data/2013-14/1-11-2013-14.xlsx
+++ b/Team-Data/2013-14/1-11-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.342</v>
+        <v>0.351</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.445</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -917,19 +984,19 @@
         <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -941,10 +1008,10 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>16</v>
@@ -956,19 +1023,19 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -977,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC3" t="n">
         <v>22</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>23</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.405</v>
+        <v>0.417</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
         <v>9.699999999999999</v>
@@ -1081,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1090,34 +1157,34 @@
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1141,13 +1208,13 @@
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1156,13 +1223,13 @@
         <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1174,13 +1241,13 @@
         <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,76 +1297,76 @@
         <v>34.8</v>
       </c>
       <c r="J5" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.723</v>
       </c>
       <c r="R5" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
         <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
@@ -1314,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1326,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>23</v>
@@ -1341,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.486</v>
+        <v>0.471</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="J6" t="n">
         <v>79.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
         <v>5.3</v>
@@ -1424,37 +1491,37 @@
         <v>16.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R6" t="n">
         <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
         <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W6" t="n">
         <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
@@ -1466,13 +1533,13 @@
         <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1496,13 +1563,13 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1511,7 +1578,7 @@
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>16</v>
@@ -1532,7 +1599,7 @@
         <v>26</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
         <v>24</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
@@ -1669,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1687,10 +1754,10 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>18</v>
@@ -1708,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW7" t="n">
         <v>22</v>
@@ -1717,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.579</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O8" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="P8" t="n">
-        <v>20.1</v>
+        <v>19.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1869,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,10 +1948,10 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1896,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J9" t="n">
         <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
         <v>18.6</v>
@@ -1979,46 +2046,46 @@
         <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S9" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T9" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U9" t="n">
+        <v>22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z9" t="n">
         <v>22.3</v>
       </c>
-      <c r="V9" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>22.2</v>
-      </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2033,22 +2100,22 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
       </c>
       <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2063,25 +2130,25 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT9" t="n">
         <v>5</v>
       </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>14</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
@@ -2090,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312</v>
+        <v>0.315</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.662</v>
+        <v>0.661</v>
       </c>
       <c r="R10" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
         <v>15.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.4</v>
@@ -2191,31 +2258,31 @@
         <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2224,10 +2291,10 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2248,10 +2315,10 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>21</v>
@@ -2263,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -2397,10 +2464,10 @@
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2424,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2442,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.632</v>
+        <v>0.622</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,28 +2571,28 @@
         <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O12" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.694</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R12" t="n">
         <v>11</v>
@@ -2534,7 +2601,7 @@
         <v>34.3</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
         <v>19.9</v>
@@ -2546,25 +2613,25 @@
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2591,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,16 +2673,16 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2624,19 +2691,19 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2806,10 +2873,10 @@
         <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2988,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
@@ -3143,13 +3210,13 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3179,10 +3246,10 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3343,7 +3410,7 @@
         <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3355,7 +3422,7 @@
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3364,7 +3431,7 @@
         <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>7</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>49</v>
@@ -3599,31 +3666,31 @@
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>11.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T18" t="n">
         <v>41.3</v>
@@ -3632,31 +3699,31 @@
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
         <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3689,10 +3756,10 @@
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
@@ -3701,13 +3768,13 @@
         <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
@@ -3722,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3859,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>85.5</v>
+        <v>85.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3972,91 +4039,91 @@
         <v>16.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
         <v>12.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
         <v>22.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC20" t="n">
         <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
         <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
@@ -4065,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4077,22 +4144,22 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.389</v>
+        <v>0.371</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O21" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="P21" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4175,46 +4242,46 @@
         <v>39.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W21" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4223,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,19 +4320,19 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY21" t="n">
         <v>6</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
@@ -4274,10 +4341,10 @@
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J22" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
@@ -4345,19 +4412,19 @@
         <v>25.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
         <v>35.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47</v>
+        <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
@@ -4372,22 +4439,22 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4435,28 +4502,28 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>12</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.27</v>
+        <v>0.278</v>
       </c>
       <c r="H23" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I23" t="n">
         <v>36.1</v>
@@ -4512,13 +4579,13 @@
         <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M23" t="n">
         <v>21.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
         <v>15.9</v>
@@ -4527,7 +4594,7 @@
         <v>21.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R23" t="n">
         <v>9.6</v>
@@ -4536,16 +4603,16 @@
         <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
         <v>4.3</v>
@@ -4557,22 +4624,22 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
@@ -4584,25 +4651,25 @@
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
       </c>
       <c r="AN23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP23" t="n">
         <v>21</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
@@ -4614,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
@@ -4629,13 +4696,13 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -4670,55 +4737,55 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I24" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J24" t="n">
-        <v>88.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.717</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U24" t="n">
         <v>22.9</v>
@@ -4730,25 +4797,25 @@
         <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC24" t="n">
         <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -4778,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>18</v>
@@ -4790,13 +4857,13 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4808,19 +4875,19 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
         <v>21</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="N25" t="n">
         <v>0.369</v>
       </c>
       <c r="O25" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
         <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4912,10 +4979,10 @@
         <v>8.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>21.4</v>
@@ -4924,19 +4991,19 @@
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -4948,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>11</v>
@@ -4957,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
         <v>8</v>
@@ -4966,13 +5033,13 @@
         <v>15</v>
       </c>
       <c r="AP25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR25" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4984,10 +5051,10 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,46 +5119,46 @@
         <v>40.2</v>
       </c>
       <c r="J26" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.821</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T26" t="n">
         <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V26" t="n">
         <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5100,7 +5167,7 @@
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>20.2</v>
@@ -5109,13 +5176,13 @@
         <v>109.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5148,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-3</v>
       </c>
       <c r="AD27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5315,19 +5382,19 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>6</v>
@@ -5345,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5363,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5515,22 +5582,22 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N29" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V29" t="n">
         <v>14.6</v>
@@ -5643,25 +5710,25 @@
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>22.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -5688,19 +5755,19 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
@@ -5712,13 +5779,13 @@
         <v>26</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5727,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5858,10 +5925,10 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,16 +5940,16 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5891,10 +5958,10 @@
         <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>25</v>
@@ -5906,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>0.457</v>
+        <v>0.471</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J31" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P31" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
         <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U31" t="n">
         <v>22.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.6</v>
@@ -6010,28 +6077,28 @@
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,22 +6107,22 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
         <v>26</v>
@@ -6064,34 +6131,34 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>18</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-11-2013-14</t>
+          <t>2014-01-11</t>
         </is>
       </c>
     </row>
